--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Valentine_Melsheimer/Frederick_Valentine_Melsheimer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Valentine_Melsheimer/Frederick_Valentine_Melsheimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend Frederick Valentine Melsheimer est un homme d’Église et un entomologiste américain d’origine allemande, surnommé le « père de l’entomologie américaine » par Thomas Say (1787-1834), né le 25 septembre 1749 à Negenborn dans le duché de Brunswick et mort le 30 juin 1814 à Hanover, en Pennsylvanie.
 Il étudie à l’université d’Helmstadt de 1772 à 1776 avant de devenir aumônier auprès d’un régiment de dragons de Charles Ier de Brunswick-Wolfenbüttel. C’est avec ce régiment qu’il arrive au Canada en février 1776 pour se battre aux côtés des troupes britanniques. Il est fait prisonnier par l’armée américaine le 16 août 1777 et reste en prison durant quatorze mois. Libéré sur parole durant quelques mois, il est de nouveau incarcéré en Pennsylvanie. Là, il démissionne de sa charge d’aumônier et commence à prêcher dans le comté de Lancaster. Il épouse Maria Agnes Man le 3 juin 1779. Il exerce une forte influence sur la colonie allemande de Pennsylvanie et officie dans de nombreuses paroisses de la région.
@@ -515,7 +527,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arnold Mallis (1971). American Entomologists. Rutgers University Press (New Brunswick) : xvii + 549 p.
 Notices d'autorité : VIAF ISNI LCCN GND WorldCat 
